--- a/runs/run1/isa.run.xlsx
+++ b/runs/run1/isa.run.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\source\repos\Hackathon_SampleRun\runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Zimmer\source\repos\Hackathon_SampleRun\runs\run1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09920C95-46B9-4AA6-BDF7-D4C60AFF57A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3F2147-805D-4AAC-89E2-B70BCCE1C5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="750" windowWidth="16200" windowHeight="11423" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4268" yWindow="4185" windowWidth="18225" windowHeight="11423" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="4" r:id="rId1"/>
@@ -187,13 +187,13 @@
     <t>./runs/proteomiqon/run.cwl</t>
   </si>
   <si>
-    <t>./runs/proteomiqon/db/Minimal.db</t>
-  </si>
-  <si>
-    <t>./runs/proteomiqon/psmstats/minimal.qpsm</t>
-  </si>
-  <si>
-    <t>./runs/proteomiqon/db/ChlamyQProt.db</t>
+    <t>./runs/run1/run.cwl</t>
+  </si>
+  <si>
+    <t>./runs/run1/db/Minimal.db</t>
+  </si>
+  <si>
+    <t>./runs/run1/psmstats/minimal.qpsm</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1294,10 +1294,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="17"/>
     </row>
@@ -1306,10 +1306,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="17"/>
     </row>
@@ -1318,10 +1318,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="17"/>
     </row>
@@ -1330,10 +1330,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -1342,10 +1342,10 @@
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="17"/>
     </row>
@@ -1354,10 +1354,10 @@
         <v>19</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="17"/>
     </row>
@@ -1366,10 +1366,10 @@
         <v>20</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="17"/>
     </row>
@@ -1378,10 +1378,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="17"/>
     </row>
@@ -1390,7 +1390,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="17" t="str">
         <f>[1]Dictionary!A6</f>
@@ -1403,7 +1403,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="17" t="str">
         <f>[1]Dictionary!A7</f>

--- a/runs/run1/isa.run.xlsx
+++ b/runs/run1/isa.run.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Zimmer\source\repos\Hackathon_SampleRun\runs\run1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3F2147-805D-4AAC-89E2-B70BCCE1C5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F7F7BA-4C3D-463D-A844-6E330F856689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4268" yWindow="4185" windowWidth="18225" windowHeight="11423" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="18225" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="4" r:id="rId1"/>
@@ -181,12 +181,6 @@
     <t>File name, coherent with the raw file name</t>
   </si>
   <si>
-    <t>./runs/proteomiqon/prot/minimal.prot</t>
-  </si>
-  <si>
-    <t>./runs/proteomiqon/run.cwl</t>
-  </si>
-  <si>
     <t>./runs/run1/run.cwl</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
   </si>
   <si>
     <t>./runs/run1/psmstats/minimal.qpsm</t>
+  </si>
+  <si>
+    <t>./runs/run1/prot/minimal.prot</t>
+  </si>
+  <si>
+    <t>./assays/assay1/isa.assay.xlsx</t>
   </si>
 </sst>
 </file>
@@ -754,11 +754,11 @@
   </sheetPr>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:K8"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -815,10 +815,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>24</v>
@@ -845,10 +845,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>25</v>
@@ -875,10 +875,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>26</v>
@@ -905,10 +905,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>27</v>
@@ -935,10 +935,10 @@
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>28</v>
@@ -965,10 +965,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>28</v>
@@ -995,10 +995,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>13</v>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345B67DD-E558-486D-8E4E-6B0E0B27FBDB}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1294,10 +1294,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="17"/>
     </row>
@@ -1306,10 +1306,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="17"/>
     </row>
@@ -1318,10 +1318,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="17"/>
     </row>
@@ -1330,10 +1330,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -1342,10 +1342,10 @@
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="17"/>
     </row>
@@ -1354,10 +1354,10 @@
         <v>19</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="17"/>
     </row>
@@ -1366,10 +1366,10 @@
         <v>20</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="17"/>
     </row>
@@ -1378,10 +1378,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="17"/>
     </row>
@@ -1390,7 +1390,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="17" t="str">
         <f>[1]Dictionary!A6</f>
@@ -1403,7 +1403,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="17" t="str">
         <f>[1]Dictionary!A7</f>

--- a/runs/run1/isa.run.xlsx
+++ b/runs/run1/isa.run.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Zimmer\source\repos\Hackathon_SampleRun\runs\run1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F7F7BA-4C3D-463D-A844-6E330F856689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3CCBE6-A694-480B-85C7-ECB503CB0302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="18225" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="968" yWindow="2033" windowWidth="18225" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="4" r:id="rId1"/>
@@ -38,9 +38,36 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={C2221F7D-913C-409F-B19F-A85EB0E4A652}</author>
+    <author>tc={007D8DBB-6F84-4120-B1DA-0E61418A6712}</author>
+    <author>tc={5233F1B5-87B5-4A47-A43B-B478E4B7AD86}</author>
+    <author>tc={0B73CE35-4DAB-4863-92D5-0E25C235596A}</author>
   </authors>
   <commentList>
     <comment ref="K2" authorId="0" shapeId="0" xr:uid="{C2221F7D-913C-409F-B19F-A85EB0E4A652}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    siehe comment bie entity, wahrscheublich nötig um hieracical onotlogy model zu bauen</t>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="1" shapeId="0" xr:uid="{007D8DBB-6F84-4120-B1DA-0E61418A6712}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    siehe comment bie entity, wahrscheublich nötig um hieracical onotlogy model zu bauen</t>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="2" shapeId="0" xr:uid="{5233F1B5-87B5-4A47-A43B-B478E4B7AD86}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    siehe comment bie entity, wahrscheublich nötig um hieracical onotlogy model zu bauen</t>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="3" shapeId="0" xr:uid="{0B73CE35-4DAB-4863-92D5-0E25C235596A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="54">
   <si>
     <t>Label</t>
   </si>
@@ -190,26 +217,42 @@
     <t>./runs/run1/psmstats/minimal.qpsm</t>
   </si>
   <si>
-    <t>./runs/run1/prot/minimal.prot</t>
-  </si>
-  <si>
     <t>./assays/assay1/isa.assay.xlsx</t>
+  </si>
+  <si>
+    <t>minimal1.prot</t>
+  </si>
+  <si>
+    <t>minimal2.prot</t>
+  </si>
+  <si>
+    <t>minimal3.prot</t>
+  </si>
+  <si>
+    <t>minimal4.prot</t>
+  </si>
+  <si>
+    <t>./runs/run1/prot/minimal4.prot</t>
+  </si>
+  <si>
+    <t>./runs/run1/prot/minimal3.prot</t>
+  </si>
+  <si>
+    <t>./runs/run1/prot/minimal2.prot</t>
+  </si>
+  <si>
+    <t>./runs/run1/prot/minimal1.prot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -258,19 +301,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF24292E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -307,6 +337,12 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -367,31 +403,27 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -744,6 +776,15 @@
   <threadedComment ref="K2" dT="2021-09-06T16:23:52.01" personId="{26C7D2A8-9A06-49EC-B9EA-B01A4D649DEC}" id="{C2221F7D-913C-409F-B19F-A85EB0E4A652}">
     <text>siehe comment bie entity, wahrscheublich nötig um hieracical onotlogy model zu bauen</text>
   </threadedComment>
+  <threadedComment ref="K9" dT="2021-09-06T16:23:52.01" personId="{26C7D2A8-9A06-49EC-B9EA-B01A4D649DEC}" id="{007D8DBB-6F84-4120-B1DA-0E61418A6712}">
+    <text>siehe comment bie entity, wahrscheublich nötig um hieracical onotlogy model zu bauen</text>
+  </threadedComment>
+  <threadedComment ref="K16" dT="2021-09-06T16:23:52.01" personId="{26C7D2A8-9A06-49EC-B9EA-B01A4D649DEC}" id="{5233F1B5-87B5-4A47-A43B-B478E4B7AD86}">
+    <text>siehe comment bie entity, wahrscheublich nötig um hieracical onotlogy model zu bauen</text>
+  </threadedComment>
+  <threadedComment ref="K23" dT="2021-09-06T16:23:52.01" personId="{26C7D2A8-9A06-49EC-B9EA-B01A4D649DEC}" id="{0B73CE35-4DAB-4863-92D5-0E25C235596A}">
+    <text>siehe comment bie entity, wahrscheublich nötig um hieracical onotlogy model zu bauen</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -752,13 +793,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -775,484 +816,883 @@
     <col min="11" max="11" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="B5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="B8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="A9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="A11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="A12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="A13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="A15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1261,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345B67DD-E558-486D-8E4E-6B0E0B27FBDB}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1276,256 +1716,495 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="17"/>
+      <c r="B2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="17" t="str">
+      <c r="B10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="13" t="str">
         <f>[1]Dictionary!A6</f>
         <v>TargetScore</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="17" t="str">
+      <c r="B11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="13" t="str">
         <f>[1]Dictionary!A7</f>
         <v>DecoyScore</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="13" t="str">
+        <f>Dictionary!A13</f>
+        <v>TargetScore</v>
+      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="13" t="str">
+        <f>Dictionary!A14</f>
+        <v>DecoyScore</v>
+      </c>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="13" t="str">
+        <f>Dictionary!A20</f>
+        <v>TargetScore</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="13" t="str">
+        <f>Dictionary!A21</f>
+        <v>DecoyScore</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A34" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A37" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A38" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A39" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A40" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="13" t="str">
+        <f>Dictionary!A27</f>
+        <v>TargetScore</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A41" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="13" t="str">
+        <f>Dictionary!A28</f>
+        <v>DecoyScore</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
